--- a/Stocks/ULTRACEMCO.xlsx
+++ b/Stocks/ULTRACEMCO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>4200.333333333333</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>4069.6240468409969</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>4058.127452326351</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>48.983176837460768</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>47.550000000000182</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>55.5</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.85675675675676</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>4116.397767115267</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-14.900298875090812</v>
       </c>
       <c r="Y67">
         <v>-2.8117829232306852</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>3956</v>
+      </c>
+      <c r="D83">
+        <v>3995.25</v>
+      </c>
+      <c r="E83">
+        <v>3944.9</v>
+      </c>
+      <c r="F83">
+        <v>3984</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>3974.7166666666667</v>
+      </c>
+      <c r="H83">
+        <v>3966.8984109097319</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>4005.2599340154588</v>
+      </c>
+      <c r="K83">
+        <v>3944.6407336054458</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>53.622195232073999</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>39.099999999999909</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>50.349999999999909</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.77656405163852993</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>3982.3288859389236</v>
+      </c>
+      <c r="W83">
+        <v>4020.2632863432596</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-37.934400404335975</v>
+      </c>
+      <c r="Y83">
+        <v>-38.357451477533722</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>3944</v>
+      </c>
+      <c r="D84">
+        <v>3974.7</v>
+      </c>
+      <c r="E84">
+        <v>3916</v>
+      </c>
+      <c r="F84">
+        <v>3940</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>3943.5666666666671</v>
+      </c>
+      <c r="H84">
+        <v>3955.2325387881992</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>3998.4688375675792</v>
+      </c>
+      <c r="K84">
+        <v>3938.276126137569</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>40.263441189477895</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>24</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>58.699999999999818</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.40885860306644078</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>3975.8167496406277</v>
+      </c>
+      <c r="W84">
+        <v>4014.3178577252402</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-38.501108084612497</v>
+      </c>
+      <c r="Y84">
+        <v>-38.386182798949477</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>3960</v>
+      </c>
+      <c r="D85">
+        <v>4024.2</v>
+      </c>
+      <c r="E85">
+        <v>3955.1</v>
+      </c>
+      <c r="F85">
+        <v>4012.05</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>3997.1166666666663</v>
+      </c>
+      <c r="H85">
+        <v>3976.174602727433</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>4004.1868736636725</v>
+      </c>
+      <c r="K85">
+        <v>3942.0147647736649</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>60.437596317912593</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>56.950000000000273</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>69.099999999999909</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.82416787264834079</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V85">
+        <v>3981.3910958497618</v>
+      </c>
+      <c r="W85">
+        <v>4014.1498682641113</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-32.758772414349551</v>
+      </c>
+      <c r="Y85">
+        <v>-37.26070072202949</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>4031.9</v>
+      </c>
+      <c r="D86">
+        <v>4039.85</v>
+      </c>
+      <c r="E86">
+        <v>3984.5</v>
+      </c>
+      <c r="F86">
+        <v>4005</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>4009.7833333333333</v>
+      </c>
+      <c r="H86">
+        <v>3992.9789680303829</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>4012.1120128495231</v>
+      </c>
+      <c r="K86">
+        <v>3951.4559281572947</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>58.040150347118427</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>20.5</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>55.349999999999909</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.37037037037037096</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>3985.0232349497983</v>
+      </c>
+      <c r="W86">
+        <v>4013.4721002445476</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-28.448865294749339</v>
+      </c>
+      <c r="Y86">
+        <v>-35.498333636573463</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>4000</v>
+      </c>
+      <c r="D87">
+        <v>4029</v>
+      </c>
+      <c r="E87">
+        <v>3988</v>
+      </c>
+      <c r="F87">
+        <v>4001</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>4006</v>
+      </c>
+      <c r="H87">
+        <v>3999.4894840151915</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>4015.8648988829623</v>
+      </c>
+      <c r="K87">
+        <v>3959.5768330112292</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>56.451963537435979</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>41</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.31707317073170732</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>3987.4811988036754</v>
+      </c>
+      <c r="W87">
+        <v>4012.5482409671736</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-25.067042163498172</v>
+      </c>
+      <c r="Y87">
+        <v>-33.412075341958406</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>4018</v>
+      </c>
+      <c r="D88">
+        <v>4028.75</v>
+      </c>
+      <c r="E88">
+        <v>3993.05</v>
+      </c>
+      <c r="F88">
+        <v>4015</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>4012.2666666666664</v>
+      </c>
+      <c r="H88">
+        <v>4005.8780753409292</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>4018.7282546867486</v>
+      </c>
+      <c r="K88">
+        <v>3967.0153145642894</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>61.107952296545839</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>21.949999999999818</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>35.699999999999818</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.61484593837534818</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>3991.7148605261868</v>
+      </c>
+      <c r="W88">
+        <v>4012.7298527473831</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-21.01499222119628</v>
+      </c>
+      <c r="Y88">
+        <v>-30.932658717805982</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>4020.1</v>
+      </c>
+      <c r="D89">
+        <v>4108.8</v>
+      </c>
+      <c r="E89">
+        <v>4005.05</v>
+      </c>
+      <c r="F89">
+        <v>4103</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>4072.2833333333333</v>
+      </c>
+      <c r="H89">
+        <v>4039.0807043371315</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>4038.7441980896933</v>
+      </c>
+      <c r="K89">
+        <v>3975.4674668833363</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>78.863655425799266</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>97.949999999999818</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>103.75</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.9440963855421669</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V89">
+        <v>4008.835651214466</v>
+      </c>
+      <c r="W89">
+        <v>4019.416530321651</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-10.580879107184956</v>
+      </c>
+      <c r="Y89">
+        <v>-26.862302795681778</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD89">
+        <f t="shared" si="35"/>
+        <v>4016.9</v>
+      </c>
+      <c r="AE89">
+        <f t="shared" si="36"/>
+        <v>4044.7000000000003</v>
+      </c>
+      <c r="AF89">
+        <f t="shared" si="37"/>
+        <v>4056.9500000000003</v>
+      </c>
+      <c r="AG89">
+        <f t="shared" si="38"/>
+        <v>4069.15</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>4090</v>
+      </c>
+      <c r="D90">
+        <v>4169</v>
+      </c>
+      <c r="E90">
+        <v>4078.15</v>
+      </c>
+      <c r="F90">
+        <v>4150</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>4132.3833333333332</v>
+      </c>
+      <c r="H90">
+        <v>4085.7320188352323</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>4067.6899318475394</v>
+      </c>
+      <c r="K90">
+        <v>3998.2858075759282</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>83.800974141127966</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>71.849999999999909</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>90.849999999999909</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.79086406164006584</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>4030.5532433353173</v>
+      </c>
+      <c r="W90">
+        <v>4029.0893799274545</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>1.4638634078628456</v>
+      </c>
+      <c r="Y90">
+        <v>-21.197069554972853</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>4167</v>
+      </c>
+      <c r="D91">
+        <v>4179.8999999999996</v>
+      </c>
+      <c r="E91">
+        <v>4100.55</v>
+      </c>
+      <c r="F91">
+        <v>4105</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>4128.4833333333336</v>
+      </c>
+      <c r="H91">
+        <v>4107.1076760842825</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>4092.6255025480859</v>
+      </c>
+      <c r="K91">
+        <v>4021.0111836701662</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>65.491664161839608</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>4.4499999999998181</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>79.349999999999454</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>5.6080655324509752E-2</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>4042.0065905144993</v>
+      </c>
+      <c r="W91">
+        <v>4034.712388821717</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>7.2942016927822806</v>
+      </c>
+      <c r="Y91">
+        <v>-15.498815305421825</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>4071.05</v>
+      </c>
+      <c r="D92">
+        <v>4160.2</v>
+      </c>
+      <c r="E92">
+        <v>4070.95</v>
+      </c>
+      <c r="F92">
+        <v>4144.1000000000004</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>4125.083333333333</v>
+      </c>
+      <c r="H92">
+        <v>4116.0955047088082</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>4107.6420575374004</v>
+      </c>
+      <c r="K92">
+        <v>4032.1086984101294</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>72.10996157438494</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>73.150000000000546</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>89.25</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.81960784313726098</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V92">
+        <v>4057.7132688968841</v>
+      </c>
+      <c r="W92">
+        <v>4042.8151748349233</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>14.898094061960819</v>
+      </c>
+      <c r="Y92">
+        <v>-9.419433431945297</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD92">
+        <f t="shared" si="35"/>
+        <v>4081.1000000000004</v>
+      </c>
+      <c r="AE92">
+        <f t="shared" si="36"/>
+        <v>4105.05</v>
+      </c>
+      <c r="AF92">
+        <f t="shared" si="37"/>
+        <v>4115.55</v>
+      </c>
+      <c r="AG92">
+        <f t="shared" si="38"/>
+        <v>4126.1000000000004</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>4162.2</v>
+      </c>
+      <c r="D93">
+        <v>4192</v>
+      </c>
+      <c r="E93">
+        <v>4151.05</v>
+      </c>
+      <c r="F93">
+        <v>4159.5</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>4167.5166666666664</v>
+      </c>
+      <c r="H93">
+        <v>4141.8060856877373</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>4126.388266973534</v>
+      </c>
+      <c r="K93">
+        <v>4058.5400987634339</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>74.516208961838103</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>8.4499999999998181</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>40.949999999999818</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.20634920634920281</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>4073.3727659896713</v>
+      </c>
+      <c r="W93">
+        <v>4051.4584952175214</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>21.914270772149848</v>
+      </c>
+      <c r="Y93">
+        <v>-3.152692591126268</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>4175</v>
+      </c>
+      <c r="D94">
+        <v>4233</v>
+      </c>
+      <c r="E94">
+        <v>4175</v>
+      </c>
+      <c r="F94">
+        <v>4202</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>4203.333333333333</v>
+      </c>
+      <c r="H94">
+        <v>4172.5697095105352</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>4150.0797632016374</v>
+      </c>
+      <c r="K94">
+        <v>4084.420076816004</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>80.361205005892828</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>27</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>58</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.46551724137931033</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>4093.1615712220296</v>
+      </c>
+      <c r="W94">
+        <v>4062.6097177940014</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>30.551853428028153</v>
+      </c>
+      <c r="Y94">
+        <v>3.5882166127046169</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>4202</v>
+      </c>
+      <c r="D95">
+        <v>4226.95</v>
+      </c>
+      <c r="E95">
+        <v>4174.1499999999996</v>
+      </c>
+      <c r="F95">
+        <v>4182.7</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>4194.5999999999995</v>
+      </c>
+      <c r="H95">
+        <v>4183.5848547552669</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>4167.162038045718</v>
+      </c>
+      <c r="K95">
+        <v>4104.3600597457807</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>71.103759915677983</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>8.5500000000001819</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>52.800000000000182</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.16193181818182106</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>4106.9367141109478</v>
+      </c>
+      <c r="W95">
+        <v>4071.505294253705</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>35.431419857242872</v>
+      </c>
+      <c r="Y95">
+        <v>9.9568572616122673</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>4194.8</v>
+      </c>
+      <c r="D96">
+        <v>4225</v>
+      </c>
+      <c r="E96">
+        <v>4173.5</v>
+      </c>
+      <c r="F96">
+        <v>4201.05</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>4199.8499999999995</v>
+      </c>
+      <c r="H96">
+        <v>4191.7174273776327</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>4180.014918480003</v>
+      </c>
+      <c r="K96">
+        <v>4119.7244909133851</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>74.58351703044714</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>27.550000000000182</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>51.5</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.53495145631068319</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>4121.4156811708017</v>
+      </c>
+      <c r="W96">
+        <v>4081.1011983830604</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>40.314482787741326</v>
+      </c>
+      <c r="Y96">
+        <v>16.02838236683808</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>4201.55</v>
+      </c>
+      <c r="D97">
+        <v>4226.1499999999996</v>
+      </c>
+      <c r="E97">
+        <v>4176</v>
+      </c>
+      <c r="F97">
+        <v>4223.7</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>4208.6166666666659</v>
+      </c>
+      <c r="H97">
+        <v>4200.1670470221488</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>4190.26715881778</v>
+      </c>
+      <c r="K97">
+        <v>4132.2301595992994</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>78.565992609820341</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>47.699999999999818</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>50.149999999999636</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.9511465603190461</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V97">
+        <v>4137.1517302214479</v>
+      </c>
+      <c r="W97">
+        <v>4091.6640725769075</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>45.487657644540377</v>
+      </c>
+      <c r="Y97">
+        <v>21.920237422378541</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD97">
+        <f t="shared" si="35"/>
+        <v>4181.7</v>
+      </c>
+      <c r="AE97">
+        <f t="shared" si="36"/>
+        <v>4195.1500000000005</v>
+      </c>
+      <c r="AF97">
+        <f t="shared" si="37"/>
+        <v>4201.05</v>
+      </c>
+      <c r="AG97">
+        <f t="shared" si="38"/>
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>4235</v>
+      </c>
+      <c r="D98">
+        <v>4240</v>
+      </c>
+      <c r="E98">
+        <v>4200</v>
+      </c>
+      <c r="F98">
+        <v>4207.05</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>4215.6833333333334</v>
+      </c>
+      <c r="H98">
+        <v>4207.9251901777407</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>4201.3189013027177</v>
+      </c>
+      <c r="K98">
+        <v>4147.2901241327882</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>68.677935960209879</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>7.0500000000001819</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>40</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.17625000000000454</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>4147.9053101873787</v>
+      </c>
+      <c r="W98">
+        <v>4100.2111783119517</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>47.694131875427047</v>
+      </c>
+      <c r="Y98">
+        <v>27.075016312988243</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>4214.8999999999996</v>
+      </c>
+      <c r="D99">
+        <v>4214.8999999999996</v>
+      </c>
+      <c r="E99">
+        <v>4170</v>
+      </c>
+      <c r="F99">
+        <v>4187</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>4190.6333333333332</v>
+      </c>
+      <c r="H99">
+        <v>4199.2792617555369</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>4204.3369232354471</v>
+      </c>
+      <c r="K99">
+        <v>4152.3367632143909</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>57.739409234344784</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>17</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>44.899999999999636</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.37861915367483601</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>4153.9198778508589</v>
+      </c>
+      <c r="W99">
+        <v>4106.6399799184737</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>47.279897932385211</v>
+      </c>
+      <c r="Y99">
+        <v>31.115992636867638</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>4187</v>
+      </c>
+      <c r="D100">
+        <v>4219.8500000000004</v>
+      </c>
+      <c r="E100">
+        <v>4154.1000000000004</v>
+      </c>
+      <c r="F100">
+        <v>4201.2</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>4191.7166666666672</v>
+      </c>
+      <c r="H100">
+        <v>4195.497964211102</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>4207.7842736275697</v>
+      </c>
+      <c r="K100">
+        <v>4152.728593611193</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>62.961864139629498</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>47.099999999999454</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>65.75</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.71634980988592323</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>4161.1937427968805</v>
+      </c>
+      <c r="W100">
+        <v>4113.6444258504389</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>47.54931694644165</v>
+      </c>
+      <c r="Y100">
+        <v>34.402657498782439</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>4193.2</v>
+      </c>
+      <c r="D101">
+        <v>4244</v>
+      </c>
+      <c r="E101">
+        <v>4150</v>
+      </c>
+      <c r="F101">
+        <v>4157.3999999999996</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>4183.8</v>
+      </c>
+      <c r="H101">
+        <v>4189.6489821055511</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>4215.8322128214431</v>
+      </c>
+      <c r="K101">
+        <v>4152.1222394753722</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>42.643531143349925</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>7.3999999999996362</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>94</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>7.872340425531528E-2</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>4160.610090058899</v>
+      </c>
+      <c r="W101">
+        <v>4116.8855794911469</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>43.724510567752077</v>
+      </c>
+      <c r="Y101">
+        <v>36.267028112576369</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>4148</v>
+      </c>
+      <c r="D102">
+        <v>4160.95</v>
+      </c>
+      <c r="E102">
+        <v>3989.2</v>
+      </c>
+      <c r="F102">
+        <v>3999.9</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>4050.0166666666664</v>
+      </c>
+      <c r="H102">
+        <v>4119.8328243861088</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>4203.6361655277888</v>
+      </c>
+      <c r="K102">
+        <v>4115.9172973697341</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>17.401752735984115</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>10.700000000000273</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>171.75</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>6.2299854439594023E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>4135.8854608190686</v>
+      </c>
+      <c r="W102">
+        <v>4108.2199810103211</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>27.665479808747477</v>
+      </c>
+      <c r="Y102">
+        <v>34.546718451810591</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>3990</v>
+      </c>
+      <c r="D103">
+        <v>3999</v>
+      </c>
+      <c r="E103">
+        <v>3891.1</v>
+      </c>
+      <c r="F103">
+        <v>3899</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>3929.7000000000003</v>
+      </c>
+      <c r="H103">
+        <v>4024.7664121930547</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>4158.1614620771688</v>
+      </c>
+      <c r="K103">
+        <v>4065.9578979542375</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>11.805723116039534</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>7.9000000000000909</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>107.90000000000009</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>7.321594068582099E-2</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V103">
+        <v>4099.4415437699809</v>
+      </c>
+      <c r="W103">
+        <v>4092.7222046391862</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>6.7193391307946513</v>
+      </c>
+      <c r="Y103">
+        <v>28.981242587607404</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD103">
+        <f t="shared" si="35"/>
+        <v>3986.7000000000003</v>
+      </c>
+      <c r="AE103">
+        <f t="shared" si="36"/>
+        <v>3957.8</v>
+      </c>
+      <c r="AF103">
+        <f t="shared" si="37"/>
+        <v>3945.05</v>
+      </c>
+      <c r="AG103">
+        <f t="shared" si="38"/>
+        <v>3932.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>3900</v>
+      </c>
+      <c r="D104">
+        <v>3934.95</v>
+      </c>
+      <c r="E104">
+        <v>3836</v>
+      </c>
+      <c r="F104">
+        <v>3903.9</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>3891.6166666666668</v>
+      </c>
+      <c r="H104">
+        <v>3958.1915394298608</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>4108.5589149489088</v>
+      </c>
+      <c r="K104">
+        <v>4014.8561428532958</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>13.49439848302308</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>67.900000000000091</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>98.949999999999818</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.68620515411824368</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>4069.3582293438299</v>
+      </c>
+      <c r="W104">
+        <v>4078.7353746659132</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-9.3771453220833791</v>
+      </c>
+      <c r="Y104">
+        <v>21.309565005669249</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>3954.9</v>
+      </c>
+      <c r="D105">
+        <v>3960.05</v>
+      </c>
+      <c r="E105">
+        <v>3773.3</v>
+      </c>
+      <c r="F105">
+        <v>3804</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>3845.7833333333333</v>
+      </c>
+      <c r="H105">
+        <v>3901.987436381597</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>4075.5569338491514</v>
+      </c>
+      <c r="K105">
+        <v>3961.1769999970079</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>9.0690533812140757</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>30.699999999999818</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>186.75</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.16439089692101644</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>4028.5338863678562</v>
+      </c>
+      <c r="W105">
+        <v>4058.384606172142</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-29.850719804285745</v>
+      </c>
+      <c r="Y105">
+        <v>11.07750804367825</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>3938.75</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>3888.7000000000003</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>3866.7000000000003</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>3844.65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>3798.5</v>
+      </c>
+      <c r="D106">
+        <v>3887.55</v>
+      </c>
+      <c r="E106">
+        <v>3777.2</v>
+      </c>
+      <c r="F106">
+        <v>3862.85</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>3842.5333333333333</v>
+      </c>
+      <c r="H106">
+        <v>3872.2603848574654</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>4033.7776152160068</v>
+      </c>
+      <c r="K106">
+        <v>3920.2932222198951</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>26.756124468817021</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>85.650000000000091</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>110.35000000000036</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.77616674218395842</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>4003.0440576958781</v>
+      </c>
+      <c r="W106">
+        <v>4043.9005612705018</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-40.85650357462373</v>
+      </c>
+      <c r="Y106">
+        <v>0.6907057200178528</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>3878</v>
+      </c>
+      <c r="D107">
+        <v>3916.75</v>
+      </c>
+      <c r="E107">
+        <v>3845</v>
+      </c>
+      <c r="F107">
+        <v>3854.3</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>3872.0166666666664</v>
+      </c>
+      <c r="H107">
+        <v>3872.1385257620659</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>4007.7714785013386</v>
+      </c>
+      <c r="K107">
+        <v>3903.5613950599186</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>25.843229824045178</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>9.3000000000001819</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>71.75</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.1296167247386785</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V107">
+        <v>3980.1603565118967</v>
+      </c>
+      <c r="W107">
+        <v>4029.8560752504645</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-49.695718738567848</v>
+      </c>
+      <c r="Y107">
+        <v>-9.3865791716992888</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD107">
+        <f t="shared" si="35"/>
+        <v>3908.55</v>
+      </c>
+      <c r="AE107">
+        <f t="shared" si="36"/>
+        <v>3889.3500000000004</v>
+      </c>
+      <c r="AF107">
+        <f t="shared" si="37"/>
+        <v>3880.9</v>
+      </c>
+      <c r="AG107">
+        <f t="shared" si="38"/>
+        <v>3872.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
